--- a/data/trans_dic/P23_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P23_R2-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2718420524026856</v>
+        <v>0.2701273815869568</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2817886228620341</v>
+        <v>0.2812558855906918</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2023196670855362</v>
+        <v>0.2057407774315553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1423717768579766</v>
+        <v>0.138865012127505</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2295655970114916</v>
+        <v>0.2322383373736061</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2504495610771739</v>
+        <v>0.249672551332991</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1525649543137255</v>
+        <v>0.152341563712863</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1234393336217636</v>
+        <v>0.1228874599545795</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2649084247143119</v>
+        <v>0.2647125288218707</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2778114373989828</v>
+        <v>0.2806861577266557</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1942964233014891</v>
+        <v>0.193022599587443</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1416696654963613</v>
+        <v>0.1390624041301081</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3516044054483288</v>
+        <v>0.355818562759156</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3766946964994441</v>
+        <v>0.3769249699079022</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2911332271658344</v>
+        <v>0.2948931286412664</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2056446857809618</v>
+        <v>0.2069680864052437</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3319037414868262</v>
+        <v>0.331325732011596</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3578269659087254</v>
+        <v>0.3552436174838862</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2395243931878362</v>
+        <v>0.2370940660560968</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1760944276666136</v>
+        <v>0.1772200009604445</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.329816488723942</v>
+        <v>0.3310548337506472</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3501905036968635</v>
+        <v>0.3537419587071882</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2519117812076384</v>
+        <v>0.2541775766298953</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1851661999732196</v>
+        <v>0.1828014090109559</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2987390538701969</v>
+        <v>0.2955557416717915</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2967112613612251</v>
+        <v>0.2958242333001129</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2336464045904408</v>
+        <v>0.2310122904454432</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1628441124636882</v>
+        <v>0.1630920433306655</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3002485526420885</v>
+        <v>0.2971416689575794</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3158896234660952</v>
+        <v>0.310718945725376</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2238414024860295</v>
+        <v>0.2272557174456074</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1820043126535989</v>
+        <v>0.1845862695999857</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3102994956234086</v>
+        <v>0.3130946369623773</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3187670426483826</v>
+        <v>0.3111076016464469</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.241004854100438</v>
+        <v>0.2382344196017784</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1791318619720282</v>
+        <v>0.1804089664308446</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4035039314996059</v>
+        <v>0.3991973068098609</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3929579395618887</v>
+        <v>0.3989733056542431</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3277238422129145</v>
+        <v>0.3277905965797336</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2371836447012695</v>
+        <v>0.2342968903335168</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3984766926516247</v>
+        <v>0.3992396272289117</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4245180163717697</v>
+        <v>0.4264243874288339</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.320548864096951</v>
+        <v>0.3179970115516705</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2570983278253459</v>
+        <v>0.2571445015029046</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3876050287676811</v>
+        <v>0.3869915991770711</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3901459008356403</v>
+        <v>0.3914049033792696</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3078783384409305</v>
+        <v>0.3072934742721494</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2323642386399101</v>
+        <v>0.2330737760245352</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.4152749949392132</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2705918526056845</v>
+        <v>0.2705918526056844</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2624986139339552</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4137901203016167</v>
+        <v>0.4103597448872005</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3647669060822081</v>
+        <v>0.3616953363284271</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3745991113517295</v>
+        <v>0.3730107120341308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2272229365835992</v>
+        <v>0.2249211866667807</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1982786687903626</v>
+        <v>0.1967081543571538</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2603610247381979</v>
+        <v>0.2680115284821413</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2455828523731535</v>
+        <v>0.243852956685835</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1083705541519043</v>
+        <v>0.1052147273289972</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.372704760379994</v>
+        <v>0.3732980467339927</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3465835218588516</v>
+        <v>0.3467546724972966</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3520343185852907</v>
+        <v>0.3531568257736463</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2040848162422703</v>
+        <v>0.2024749095066451</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4965796021106066</v>
+        <v>0.4980584236034491</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4410506065289414</v>
+        <v>0.4453286199645507</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4619156526077492</v>
+        <v>0.4565838907845644</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.31481476426292</v>
+        <v>0.3128495886447862</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3331175543006428</v>
+        <v>0.3354991247426597</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3801471917813929</v>
+        <v>0.3819280312922689</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.390481387650606</v>
+        <v>0.3942303382033486</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1932822742185745</v>
+        <v>0.1866576475843667</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4466859023607436</v>
+        <v>0.4487775252601915</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4100063059271294</v>
+        <v>0.4165242427507731</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4293106030228583</v>
+        <v>0.4279272979774009</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2674206677893852</v>
+        <v>0.2748522885217063</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.37448073392036</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.320972799562118</v>
+        <v>0.3209727995621179</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3195253877418959</v>
@@ -1093,7 +1093,7 @@
         <v>0.3828282515085361</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2692450329252407</v>
+        <v>0.2692450329252408</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3886016726627417</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4028439782114848</v>
+        <v>0.4000110610617715</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3731383277067767</v>
+        <v>0.3738218150066146</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3453150439636258</v>
+        <v>0.3454882482887031</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2917359657073365</v>
+        <v>0.2913650336980392</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2873439899205415</v>
+        <v>0.2826693685329208</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3291904852481719</v>
+        <v>0.3307929997875255</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3509398756996372</v>
+        <v>0.3504047773732816</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2415850077095746</v>
+        <v>0.2408051799185284</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3656271299415532</v>
+        <v>0.3666431389202884</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3669171303896689</v>
+        <v>0.3672516361504248</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.358102034936235</v>
+        <v>0.3564426884463149</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2769546682296469</v>
+        <v>0.2790490272545754</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4566622289867014</v>
+        <v>0.4565351348860415</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.431975776934822</v>
+        <v>0.432836760075409</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4049532857951489</v>
+        <v>0.4026689167679151</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3516763294620143</v>
+        <v>0.3534148539699835</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3563288136956992</v>
+        <v>0.350955169490887</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4024182242550474</v>
+        <v>0.4062558741793461</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.420164889285481</v>
+        <v>0.4159246684925921</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2968948628299012</v>
+        <v>0.2948241074603569</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4105233878276163</v>
+        <v>0.4118957662101492</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.414750795099627</v>
+        <v>0.4123055426349494</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4006179706157495</v>
+        <v>0.4004981958190324</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3219064650744839</v>
+        <v>0.3222844300436777</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.3886264895679605</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3238501298741669</v>
+        <v>0.3238501298741668</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3057570616141122</v>
@@ -1229,7 +1229,7 @@
         <v>0.29178990819968</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2097164804320239</v>
+        <v>0.209716480432024</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3741459005663508</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4318898667888047</v>
+        <v>0.4353565225844228</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.35019453444313</v>
+        <v>0.3514976483760502</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3506668068307939</v>
+        <v>0.3491468493235538</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2787496938133999</v>
+        <v>0.2825743299469775</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2660896152749312</v>
+        <v>0.2711864117506961</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.249260773794675</v>
+        <v>0.2519672659158952</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2552375649681985</v>
+        <v>0.2581367371345965</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1863914940902685</v>
+        <v>0.1871293271847327</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3405805085737753</v>
+        <v>0.340740193709384</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3020175777685829</v>
+        <v>0.3011439496947652</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3130117733814774</v>
+        <v>0.3107286249992949</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2342098362416222</v>
+        <v>0.2337138485848881</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5371072779386329</v>
+        <v>0.5390019055189157</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4399345702577596</v>
+        <v>0.4393628756940233</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.42912097757164</v>
+        <v>0.429201828580404</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3677747161485441</v>
+        <v>0.3702036713694769</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3488471111953116</v>
+        <v>0.3473884966965946</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3164346828943213</v>
+        <v>0.3189209503851776</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3282628953172571</v>
+        <v>0.327954421140495</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2361031524780661</v>
+        <v>0.235650790091775</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4082511113323793</v>
+        <v>0.4079859156373301</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3541638106850011</v>
+        <v>0.354851885247265</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3627877303832836</v>
+        <v>0.3647862475354309</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2802912704653012</v>
+        <v>0.2802625562354043</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.2505875730181065</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1142590443645859</v>
+        <v>0.114259044364586</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1330831020648946</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2207016689093446</v>
+        <v>0.2249002751470981</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1477273274719743</v>
+        <v>0.1502137265458497</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2047718596391183</v>
+        <v>0.1973955701474995</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06201658230763438</v>
+        <v>0.05916052856136153</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1162265144610451</v>
+        <v>0.1152126414191843</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1253108595162691</v>
+        <v>0.12147500259304</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1389119450525689</v>
+        <v>0.1382197484438158</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.08713501366722799</v>
+        <v>0.08888222522834556</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1423549950903426</v>
+        <v>0.1426842062174516</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1343223720445532</v>
+        <v>0.1342685634446999</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.157066642297174</v>
+        <v>0.1572857281716351</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.08834054362663718</v>
+        <v>0.09032473545945419</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3209770249039196</v>
+        <v>0.3264327063747718</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2485823180824552</v>
+        <v>0.2458036976122597</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3072945909604968</v>
+        <v>0.3027803343543894</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1936933698044618</v>
+        <v>0.1957596583610151</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1528835020977909</v>
+        <v>0.1517679898993698</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1652700501233235</v>
+        <v>0.164240904633139</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1835431410595301</v>
+        <v>0.1838991434867559</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1326602774586986</v>
+        <v>0.1334032026113781</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1785575883008748</v>
+        <v>0.1787815334399626</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1727958822762885</v>
+        <v>0.1737242741321758</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1999126956490561</v>
+        <v>0.1988143557130819</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1358985491727367</v>
+        <v>0.1329724227716281</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.346069940469465</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.258860309757089</v>
+        <v>0.2588603097570889</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.245322614791856</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3794115983728995</v>
+        <v>0.3824706904294165</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.353238544837613</v>
+        <v>0.3514799883034735</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3299840062873319</v>
+        <v>0.3288447344843508</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2408346845926926</v>
+        <v>0.2425827789116432</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2315764834907826</v>
+        <v>0.2310950157412831</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2547362593073356</v>
+        <v>0.2552627078965414</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2473039649685615</v>
+        <v>0.2472067815248029</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1792130839496117</v>
+        <v>0.1784608564891048</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3091656550019837</v>
+        <v>0.3084839250354554</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3067642864926264</v>
+        <v>0.3061830916695849</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2919417400083117</v>
+        <v>0.2904523036404058</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2140085589020456</v>
+        <v>0.214666137961023</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4159599847120554</v>
+        <v>0.4162805876381405</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3867056514128856</v>
+        <v>0.3855566654567263</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3638285473200248</v>
+        <v>0.3622037620052934</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2757109156157955</v>
+        <v>0.2763574877132426</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2608308542043143</v>
+        <v>0.260495424807465</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2852221935653809</v>
+        <v>0.285999789222984</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2762495150329685</v>
+        <v>0.2766853583858882</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2032313780455477</v>
+        <v>0.2011722449687611</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3326268880888844</v>
+        <v>0.3327547903065431</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3301702595191374</v>
+        <v>0.3293353336689705</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3142177166923744</v>
+        <v>0.3135601367415606</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2349735691417016</v>
+        <v>0.235617538074142</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>128792</v>
+        <v>127980</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>123201</v>
+        <v>122968</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>86814</v>
+        <v>88282</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>78392</v>
+        <v>76462</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>70403</v>
+        <v>71223</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>78755</v>
+        <v>78511</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>52948</v>
+        <v>52871</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>60289</v>
+        <v>60020</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>206750</v>
+        <v>206597</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>208821</v>
+        <v>210982</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>150803</v>
+        <v>149814</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>147199</v>
+        <v>144490</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>166582</v>
+        <v>168578</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>164695</v>
+        <v>164796</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>124923</v>
+        <v>126536</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>113232</v>
+        <v>113960</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>101788</v>
+        <v>101611</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>112520</v>
+        <v>111708</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>83128</v>
+        <v>82285</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>86006</v>
+        <v>86556</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>257408</v>
+        <v>258374</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>263226</v>
+        <v>265895</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>195521</v>
+        <v>197279</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>192393</v>
+        <v>189936</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>109618</v>
+        <v>108449</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>124262</v>
+        <v>123890</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>87887</v>
+        <v>86896</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>78688</v>
+        <v>78808</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>111652</v>
+        <v>110497</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>106774</v>
+        <v>105026</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>83100</v>
+        <v>84368</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>77014</v>
+        <v>78106</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>229249</v>
+        <v>231314</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>241245</v>
+        <v>235449</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>180127</v>
+        <v>178057</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>162357</v>
+        <v>163515</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>148059</v>
+        <v>146479</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>164570</v>
+        <v>167089</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>123275</v>
+        <v>123300</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>114610</v>
+        <v>113215</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>148180</v>
+        <v>148463</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>143492</v>
+        <v>144136</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>119002</v>
+        <v>118055</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>108789</v>
+        <v>108809</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>286362</v>
+        <v>285909</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>295266</v>
+        <v>296218</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>230109</v>
+        <v>229671</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>210604</v>
+        <v>211248</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>224435</v>
+        <v>222575</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>229590</v>
+        <v>227656</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>195509</v>
+        <v>194680</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>107161</v>
+        <v>106076</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>33268</v>
+        <v>33004</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>67727</v>
+        <v>69718</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>40797</v>
+        <v>40510</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20319</v>
+        <v>19727</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>264684</v>
+        <v>265105</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>308301</v>
+        <v>308454</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>242212</v>
+        <v>242985</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>134514</v>
+        <v>133453</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>269339</v>
+        <v>270141</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>277604</v>
+        <v>280297</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>241080</v>
+        <v>238298</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>148470</v>
+        <v>147544</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>55891</v>
+        <v>56291</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>98887</v>
+        <v>99351</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>64868</v>
+        <v>65491</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>36240</v>
+        <v>34998</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>317223</v>
+        <v>318709</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>364719</v>
+        <v>370517</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>295381</v>
+        <v>294429</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>176259</v>
+        <v>181158</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>498855</v>
+        <v>495347</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>432087</v>
+        <v>432878</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>396689</v>
+        <v>396888</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>330199</v>
+        <v>329779</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>205246</v>
+        <v>201906</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>252048</v>
+        <v>253275</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>289507</v>
+        <v>289066</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>207886</v>
+        <v>207215</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>713931</v>
+        <v>715915</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>705817</v>
+        <v>706460</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>706794</v>
+        <v>703519</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>551791</v>
+        <v>555964</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>565500</v>
+        <v>565343</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>500219</v>
+        <v>501216</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>465200</v>
+        <v>462576</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>398042</v>
+        <v>400010</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>254520</v>
+        <v>250682</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>308116</v>
+        <v>311054</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>346614</v>
+        <v>343116</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>255481</v>
+        <v>253699</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>801596</v>
+        <v>804276</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>797832</v>
+        <v>793128</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>790709</v>
+        <v>790472</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>641351</v>
+        <v>642104</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>151401</v>
+        <v>152616</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>178808</v>
+        <v>179473</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>217661</v>
+        <v>216718</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>158018</v>
+        <v>160186</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>151339</v>
+        <v>154238</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>189572</v>
+        <v>191630</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>188150</v>
+        <v>190287</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>154732</v>
+        <v>155344</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>313098</v>
+        <v>313245</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>383904</v>
+        <v>382794</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>425026</v>
+        <v>421926</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>327197</v>
+        <v>326504</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>188286</v>
+        <v>188950</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>224629</v>
+        <v>224337</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>266358</v>
+        <v>266408</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>208485</v>
+        <v>209862</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>198407</v>
+        <v>197578</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>240660</v>
+        <v>242551</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>241981</v>
+        <v>241753</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>196000</v>
+        <v>195624</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>375308</v>
+        <v>375064</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>450189</v>
+        <v>451064</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>492615</v>
+        <v>495329</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>391574</v>
+        <v>391534</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>65583</v>
+        <v>66831</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>39426</v>
+        <v>40089</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>58799</v>
+        <v>56681</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>14641</v>
+        <v>13967</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>145139</v>
+        <v>143873</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>139014</v>
+        <v>134758</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>149974</v>
+        <v>149226</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>73566</v>
+        <v>75042</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>220069</v>
+        <v>220578</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>184859</v>
+        <v>184785</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>214675</v>
+        <v>214974</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>95440</v>
+        <v>97584</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>95381</v>
+        <v>97002</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>66342</v>
+        <v>65601</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>88238</v>
+        <v>86942</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>45728</v>
+        <v>46216</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>190915</v>
+        <v>189522</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>183342</v>
+        <v>182201</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>198159</v>
+        <v>198543</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>112003</v>
+        <v>112630</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>276035</v>
+        <v>276382</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>237807</v>
+        <v>239085</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>273236</v>
+        <v>271734</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>146820</v>
+        <v>143659</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1240353</v>
+        <v>1250353</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1208387</v>
+        <v>1202371</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1116595</v>
+        <v>1112740</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>828532</v>
+        <v>834546</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>782294</v>
+        <v>780668</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>903841</v>
+        <v>905709</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>872033</v>
+        <v>871690</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>651258</v>
+        <v>648524</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2055108</v>
+        <v>2050577</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>2137848</v>
+        <v>2133797</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2017301</v>
+        <v>2007009</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1513947</v>
+        <v>1518599</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1359835</v>
+        <v>1360883</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1322874</v>
+        <v>1318943</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1231118</v>
+        <v>1225620</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>948515</v>
+        <v>950739</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>881119</v>
+        <v>879986</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1012009</v>
+        <v>1014768</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>974099</v>
+        <v>975636</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>738540</v>
+        <v>731057</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>2211061</v>
+        <v>2211912</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>2300964</v>
+        <v>2295146</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>2171227</v>
+        <v>2166683</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1662259</v>
+        <v>1666814</v>
       </c>
     </row>
     <row r="32">
